--- a/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
@@ -1135,7 +1135,7 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ValueSet/vkp-subject-identifiers</t>
+    <t>http://hl7.no/fhir/ValueSet/vkp-subject-identifiers.valueset</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -2469,7 +2469,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.83984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
@@ -1135,7 +1135,7 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ValueSet/vkp-subject-identifiers.valueset</t>
+    <t>http://ehelse.no/fhir/ValueSet/vkp-subject-identifiers.valueset</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -2469,7 +2469,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.5" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4468" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4468" uniqueCount="674">
   <si>
     <t>Property</t>
   </si>
@@ -1411,6 +1411,9 @@
   </si>
   <si>
     <t>Observation.performer.identifier.system</t>
+  </si>
+  <si>
+    <t>http://ehelse.no/fhir/ValueSet/vkp-performer-identifiers.valueset</t>
   </si>
   <si>
     <t>Observation.performer.identifier.value</t>
@@ -2469,7 +2472,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.5" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.08984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -11597,7 +11600,7 @@
       </c>
       <c r="X78" s="2"/>
       <c r="Y78" t="s" s="2">
-        <v>357</v>
+        <v>446</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11650,7 +11653,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11767,7 +11770,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11882,7 +11885,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11999,7 +12002,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12116,7 +12119,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12139,19 +12142,19 @@
         <v>90</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -12188,17 +12191,17 @@
         <v>79</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AB83" s="2"/>
       <c r="AC83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -12207,7 +12210,7 @@
         <v>89</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>101</v>
@@ -12216,27 +12219,27 @@
         <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>79</v>
@@ -12258,19 +12261,19 @@
         <v>90</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -12319,7 +12322,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12328,7 +12331,7 @@
         <v>89</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>101</v>
@@ -12337,24 +12340,24 @@
         <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12469,7 +12472,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12586,7 +12589,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12609,19 +12612,19 @@
         <v>90</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12670,7 +12673,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12691,10 +12694,10 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12705,7 +12708,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12731,20 +12734,20 @@
         <v>109</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P88" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q88" t="s" s="2">
         <v>79</v>
@@ -12768,10 +12771,10 @@
         <v>178</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>79</v>
@@ -12789,7 +12792,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12810,10 +12813,10 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12824,7 +12827,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12850,14 +12853,14 @@
         <v>91</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12906,7 +12909,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12927,10 +12930,10 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12941,7 +12944,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12967,21 +12970,21 @@
         <v>103</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="R90" t="s" s="2">
         <v>79</v>
@@ -13023,7 +13026,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -13032,7 +13035,7 @@
         <v>89</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>101</v>
@@ -13044,10 +13047,10 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -13058,7 +13061,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13084,23 +13087,23 @@
         <v>109</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>79</v>
@@ -13142,7 +13145,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -13163,10 +13166,10 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -13177,7 +13180,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13203,16 +13206,16 @@
         <v>186</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -13240,10 +13243,10 @@
         <v>273</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>79</v>
@@ -13261,7 +13264,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -13270,7 +13273,7 @@
         <v>89</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>101</v>
@@ -13285,7 +13288,7 @@
         <v>132</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -13296,11 +13299,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -13322,16 +13325,16 @@
         <v>186</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -13359,10 +13362,10 @@
         <v>273</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>79</v>
@@ -13380,7 +13383,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -13398,24 +13401,24 @@
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13438,19 +13441,19 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -13499,7 +13502,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13520,10 +13523,10 @@
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13534,7 +13537,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13560,13 +13563,13 @@
         <v>186</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13592,13 +13595,13 @@
         <v>79</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>79</v>
@@ -13616,7 +13619,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13634,24 +13637,24 @@
         <v>79</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13677,16 +13680,16 @@
         <v>186</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13711,13 +13714,13 @@
         <v>79</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>79</v>
@@ -13735,7 +13738,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13756,10 +13759,10 @@
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
@@ -13770,7 +13773,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13793,16 +13796,16 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13852,7 +13855,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13870,24 +13873,24 @@
         <v>79</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13910,16 +13913,16 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13969,7 +13972,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13987,24 +13990,24 @@
         <v>79</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14027,19 +14030,19 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>79</v>
@@ -14088,7 +14091,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -14100,7 +14103,7 @@
         <v>79</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>79</v>
@@ -14109,10 +14112,10 @@
         <v>79</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>79</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14238,7 +14241,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14355,11 +14358,11 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -14381,10 +14384,10 @@
         <v>135</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>138</v>
@@ -14439,7 +14442,7 @@
         <v>79</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
@@ -14474,7 +14477,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14497,13 +14500,13 @@
         <v>79</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -14554,7 +14557,7 @@
         <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
@@ -14563,7 +14566,7 @@
         <v>89</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>101</v>
@@ -14575,10 +14578,10 @@
         <v>79</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>79</v>
@@ -14589,7 +14592,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14612,13 +14615,13 @@
         <v>79</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -14669,7 +14672,7 @@
         <v>79</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>77</v>
@@ -14678,7 +14681,7 @@
         <v>89</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>101</v>
@@ -14690,10 +14693,10 @@
         <v>79</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>79</v>
@@ -14704,7 +14707,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14730,16 +14733,16 @@
         <v>186</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>79</v>
@@ -14767,10 +14770,10 @@
         <v>113</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>79</v>
@@ -14788,7 +14791,7 @@
         <v>79</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
@@ -14806,13 +14809,13 @@
         <v>79</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>79</v>
@@ -14823,7 +14826,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14849,16 +14852,16 @@
         <v>186</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>79</v>
@@ -14883,13 +14886,13 @@
         <v>79</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>79</v>
@@ -14907,7 +14910,7 @@
         <v>79</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
@@ -14925,13 +14928,13 @@
         <v>79</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>79</v>
@@ -14942,7 +14945,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14965,17 +14968,17 @@
         <v>79</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>79</v>
@@ -15024,7 +15027,7 @@
         <v>79</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
@@ -15048,7 +15051,7 @@
         <v>79</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>79</v>
@@ -15059,7 +15062,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15085,10 +15088,10 @@
         <v>91</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -15139,7 +15142,7 @@
         <v>79</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
@@ -15160,10 +15163,10 @@
         <v>79</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>79</v>
@@ -15174,7 +15177,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15197,16 +15200,16 @@
         <v>90</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -15256,7 +15259,7 @@
         <v>79</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
@@ -15277,10 +15280,10 @@
         <v>79</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>79</v>
@@ -15291,7 +15294,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15314,16 +15317,16 @@
         <v>90</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -15373,7 +15376,7 @@
         <v>79</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
@@ -15394,10 +15397,10 @@
         <v>79</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>79</v>
@@ -15408,7 +15411,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15431,19 +15434,19 @@
         <v>90</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>79</v>
@@ -15492,7 +15495,7 @@
         <v>79</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>77</v>
@@ -15504,7 +15507,7 @@
         <v>79</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>79</v>
@@ -15513,10 +15516,10 @@
         <v>79</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>79</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15642,7 +15645,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15759,11 +15762,11 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -15785,10 +15788,10 @@
         <v>135</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M114" t="s" s="2">
         <v>138</v>
@@ -15843,7 +15846,7 @@
         <v>79</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
@@ -15878,7 +15881,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15904,16 +15907,16 @@
         <v>186</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>79</v>
@@ -15962,7 +15965,7 @@
         <v>79</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>89</v>
@@ -15980,7 +15983,7 @@
         <v>79</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>278</v>
@@ -15997,7 +16000,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -16020,19 +16023,19 @@
         <v>90</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>79</v>
@@ -16060,10 +16063,10 @@
         <v>178</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>79</v>
@@ -16081,7 +16084,7 @@
         <v>79</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>77</v>
@@ -16090,7 +16093,7 @@
         <v>89</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>101</v>
@@ -16099,24 +16102,24 @@
         <v>79</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16142,16 +16145,16 @@
         <v>186</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>79</v>
@@ -16179,10 +16182,10 @@
         <v>273</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>79</v>
@@ -16200,7 +16203,7 @@
         <v>79</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
@@ -16209,7 +16212,7 @@
         <v>89</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>101</v>
@@ -16224,7 +16227,7 @@
         <v>132</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>79</v>
@@ -16235,11 +16238,11 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -16261,16 +16264,16 @@
         <v>186</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>79</v>
@@ -16298,10 +16301,10 @@
         <v>273</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>79</v>
@@ -16319,7 +16322,7 @@
         <v>79</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
@@ -16337,24 +16340,24 @@
         <v>79</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16380,16 +16383,16 @@
         <v>79</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>79</v>
@@ -16438,7 +16441,7 @@
         <v>79</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>77</v>
@@ -16459,10 +16462,10 @@
         <v>79</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>79</v>

--- a/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4468" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4468" uniqueCount="673">
   <si>
     <t>Property</t>
   </si>
@@ -1411,9 +1411,6 @@
   </si>
   <si>
     <t>Observation.performer.identifier.system</t>
-  </si>
-  <si>
-    <t>http://ehelse.no/fhir/ValueSet/vkp-performer-identifiers.valueset</t>
   </si>
   <si>
     <t>Observation.performer.identifier.value</t>
@@ -2472,7 +2469,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.08984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.5" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -11600,7 +11597,7 @@
       </c>
       <c r="X78" s="2"/>
       <c r="Y78" t="s" s="2">
-        <v>446</v>
+        <v>357</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11653,7 +11650,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11770,7 +11767,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11885,7 +11882,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -12002,7 +11999,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12119,7 +12116,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12142,19 +12139,19 @@
         <v>90</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L83" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -12191,26 +12188,26 @@
         <v>79</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AB83" s="2"/>
       <c r="AC83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD83" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH83" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>101</v>
@@ -12219,27 +12216,27 @@
         <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AL83" t="s" s="2">
+      <c r="AM83" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO83" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>79</v>
@@ -12261,19 +12258,19 @@
         <v>90</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="K84" t="s" s="2">
+      <c r="L84" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L84" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -12322,7 +12319,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12331,7 +12328,7 @@
         <v>89</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>101</v>
@@ -12340,24 +12337,24 @@
         <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AL84" t="s" s="2">
+      <c r="AM84" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AM84" t="s" s="2">
+      <c r="AN84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO84" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12472,7 +12469,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12589,7 +12586,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12612,19 +12609,19 @@
         <v>90</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="K87" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="K87" t="s" s="2">
+      <c r="L87" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12673,7 +12670,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12694,10 +12691,10 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AM87" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12708,7 +12705,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12734,20 +12731,20 @@
         <v>109</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P88" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P88" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="Q88" t="s" s="2">
         <v>79</v>
@@ -12771,28 +12768,28 @@
         <v>178</v>
       </c>
       <c r="X88" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="Y88" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="Y88" t="s" s="2">
+      <c r="Z88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE88" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12813,10 +12810,10 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12827,7 +12824,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12853,14 +12850,14 @@
         <v>91</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12909,7 +12906,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12930,10 +12927,10 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AM89" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12944,7 +12941,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12970,72 +12967,72 @@
         <v>103</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE90" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="R90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE90" t="s" s="2">
+      <c r="AF90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH90" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>101</v>
@@ -13047,10 +13044,10 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -13061,7 +13058,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13087,65 +13084,65 @@
         <v>109</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="L91" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE91" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -13166,10 +13163,10 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -13180,7 +13177,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13206,16 +13203,16 @@
         <v>186</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -13243,37 +13240,37 @@
         <v>273</v>
       </c>
       <c r="X92" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="Y92" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="Y92" t="s" s="2">
+      <c r="Z92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH92" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>101</v>
@@ -13288,7 +13285,7 @@
         <v>132</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -13299,11 +13296,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -13325,16 +13322,16 @@
         <v>186</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -13362,11 +13359,11 @@
         <v>273</v>
       </c>
       <c r="X93" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="Y93" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="Y93" t="s" s="2">
-        <v>523</v>
-      </c>
       <c r="Z93" t="s" s="2">
         <v>79</v>
       </c>
@@ -13383,7 +13380,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -13401,24 +13398,24 @@
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AL93" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AL93" t="s" s="2">
+      <c r="AM93" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="AM93" t="s" s="2">
+      <c r="AN93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO93" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>527</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13441,19 +13438,19 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="K94" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="K94" t="s" s="2">
+      <c r="L94" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -13502,7 +13499,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13523,10 +13520,10 @@
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13537,7 +13534,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13563,13 +13560,13 @@
         <v>186</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13595,14 +13592,14 @@
         <v>79</v>
       </c>
       <c r="W95" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="X95" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="X95" t="s" s="2">
+      <c r="Y95" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="Y95" t="s" s="2">
-        <v>542</v>
-      </c>
       <c r="Z95" t="s" s="2">
         <v>79</v>
       </c>
@@ -13619,7 +13616,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13637,24 +13634,24 @@
         <v>79</v>
       </c>
       <c r="AK95" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AL95" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="AL95" t="s" s="2">
+      <c r="AM95" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="AM95" t="s" s="2">
+      <c r="AN95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO95" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>546</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13680,16 +13677,16 @@
         <v>186</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13714,14 +13711,14 @@
         <v>79</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="X96" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="Y96" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="Y96" t="s" s="2">
-        <v>553</v>
-      </c>
       <c r="Z96" t="s" s="2">
         <v>79</v>
       </c>
@@ -13738,7 +13735,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13759,10 +13756,10 @@
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AM96" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
@@ -13773,7 +13770,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13796,16 +13793,16 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="K97" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="K97" t="s" s="2">
+      <c r="L97" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13855,7 +13852,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13873,24 +13870,24 @@
         <v>79</v>
       </c>
       <c r="AK97" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AL97" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="AL97" t="s" s="2">
+      <c r="AM97" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="AM97" t="s" s="2">
+      <c r="AN97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO97" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>564</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13913,16 +13910,16 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="K98" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="K98" t="s" s="2">
+      <c r="L98" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13972,7 +13969,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13990,24 +13987,24 @@
         <v>79</v>
       </c>
       <c r="AK98" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AL98" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="AL98" t="s" s="2">
+      <c r="AM98" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="AM98" t="s" s="2">
+      <c r="AN98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO98" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>573</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14030,19 +14027,19 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="K99" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="K99" t="s" s="2">
+      <c r="L99" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="M99" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>79</v>
@@ -14091,7 +14088,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -14103,19 +14100,19 @@
         <v>79</v>
       </c>
       <c r="AI99" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL99" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="AJ99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL99" t="s" s="2">
+      <c r="AM99" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>79</v>
@@ -14126,7 +14123,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14241,7 +14238,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14358,11 +14355,11 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -14384,10 +14381,10 @@
         <v>135</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>138</v>
@@ -14442,7 +14439,7 @@
         <v>79</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
@@ -14477,7 +14474,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14500,13 +14497,13 @@
         <v>79</v>
       </c>
       <c r="J103" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="K103" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="K103" t="s" s="2">
+      <c r="L103" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -14557,7 +14554,7 @@
         <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
@@ -14566,7 +14563,7 @@
         <v>89</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>101</v>
@@ -14578,10 +14575,10 @@
         <v>79</v>
       </c>
       <c r="AL103" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AM103" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>79</v>
@@ -14592,7 +14589,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14615,13 +14612,13 @@
         <v>79</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -14672,7 +14669,7 @@
         <v>79</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>77</v>
@@ -14681,7 +14678,7 @@
         <v>89</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>101</v>
@@ -14693,10 +14690,10 @@
         <v>79</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>79</v>
@@ -14707,7 +14704,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14733,16 +14730,16 @@
         <v>186</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>79</v>
@@ -14770,11 +14767,11 @@
         <v>113</v>
       </c>
       <c r="X105" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="Y105" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="Y105" t="s" s="2">
-        <v>607</v>
-      </c>
       <c r="Z105" t="s" s="2">
         <v>79</v>
       </c>
@@ -14791,7 +14788,7 @@
         <v>79</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
@@ -14809,13 +14806,13 @@
         <v>79</v>
       </c>
       <c r="AK105" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AL105" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="AL105" t="s" s="2">
-        <v>609</v>
-      </c>
       <c r="AM105" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>79</v>
@@ -14826,7 +14823,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14852,16 +14849,16 @@
         <v>186</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>79</v>
@@ -14886,14 +14883,14 @@
         <v>79</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="X106" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="Y106" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="Y106" t="s" s="2">
-        <v>616</v>
-      </c>
       <c r="Z106" t="s" s="2">
         <v>79</v>
       </c>
@@ -14910,7 +14907,7 @@
         <v>79</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
@@ -14928,13 +14925,13 @@
         <v>79</v>
       </c>
       <c r="AK106" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AL106" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="AL106" t="s" s="2">
-        <v>609</v>
-      </c>
       <c r="AM106" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>79</v>
@@ -14945,7 +14942,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14968,17 +14965,17 @@
         <v>79</v>
       </c>
       <c r="J107" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="K107" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="K107" t="s" s="2">
+      <c r="L107" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>79</v>
@@ -15027,7 +15024,7 @@
         <v>79</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
@@ -15051,7 +15048,7 @@
         <v>79</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>79</v>
@@ -15062,7 +15059,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15088,10 +15085,10 @@
         <v>91</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -15142,7 +15139,7 @@
         <v>79</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
@@ -15163,10 +15160,10 @@
         <v>79</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>79</v>
@@ -15177,7 +15174,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15200,16 +15197,16 @@
         <v>90</v>
       </c>
       <c r="J109" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="K109" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="K109" t="s" s="2">
+      <c r="L109" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="M109" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -15259,7 +15256,7 @@
         <v>79</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
@@ -15280,10 +15277,10 @@
         <v>79</v>
       </c>
       <c r="AL109" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AM109" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>79</v>
@@ -15294,7 +15291,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15317,16 +15314,16 @@
         <v>90</v>
       </c>
       <c r="J110" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="K110" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="K110" t="s" s="2">
+      <c r="L110" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="M110" t="s" s="2">
         <v>637</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>638</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -15376,7 +15373,7 @@
         <v>79</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
@@ -15397,10 +15394,10 @@
         <v>79</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>79</v>
@@ -15411,7 +15408,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15434,19 +15431,19 @@
         <v>90</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="L111" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>79</v>
@@ -15495,7 +15492,7 @@
         <v>79</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>77</v>
@@ -15507,19 +15504,19 @@
         <v>79</v>
       </c>
       <c r="AI111" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL111" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="AJ111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL111" t="s" s="2">
+      <c r="AM111" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>79</v>
@@ -15530,7 +15527,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15645,7 +15642,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15762,11 +15759,11 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -15788,10 +15785,10 @@
         <v>135</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="M114" t="s" s="2">
         <v>138</v>
@@ -15846,7 +15843,7 @@
         <v>79</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
@@ -15881,7 +15878,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15907,16 +15904,16 @@
         <v>186</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="L115" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="L115" t="s" s="2">
+      <c r="M115" t="s" s="2">
         <v>652</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>653</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>654</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>79</v>
@@ -15965,7 +15962,7 @@
         <v>79</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>89</v>
@@ -15983,7 +15980,7 @@
         <v>79</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>278</v>
@@ -16000,7 +15997,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -16023,19 +16020,19 @@
         <v>90</v>
       </c>
       <c r="J116" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="K116" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="K116" t="s" s="2">
+      <c r="L116" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="L116" t="s" s="2">
+      <c r="M116" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="M116" t="s" s="2">
-        <v>660</v>
-      </c>
       <c r="N116" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>79</v>
@@ -16063,37 +16060,37 @@
         <v>178</v>
       </c>
       <c r="X116" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="Y116" t="s" s="2">
         <v>661</v>
       </c>
-      <c r="Y116" t="s" s="2">
+      <c r="Z116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH116" t="s" s="2">
         <v>662</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>663</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>101</v>
@@ -16102,24 +16099,24 @@
         <v>79</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AL116" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AM116" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AM116" t="s" s="2">
+      <c r="AN116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO116" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO116" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16145,16 +16142,16 @@
         <v>186</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="L117" t="s" s="2">
+      <c r="M117" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="M117" t="s" s="2">
-        <v>668</v>
-      </c>
       <c r="N117" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>79</v>
@@ -16182,11 +16179,11 @@
         <v>273</v>
       </c>
       <c r="X117" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="Y117" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="Y117" t="s" s="2">
-        <v>513</v>
-      </c>
       <c r="Z117" t="s" s="2">
         <v>79</v>
       </c>
@@ -16203,7 +16200,7 @@
         <v>79</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
@@ -16212,7 +16209,7 @@
         <v>89</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>101</v>
@@ -16227,7 +16224,7 @@
         <v>132</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>79</v>
@@ -16238,11 +16235,11 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -16264,16 +16261,16 @@
         <v>186</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="L118" t="s" s="2">
+      <c r="M118" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="M118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>79</v>
@@ -16301,11 +16298,11 @@
         <v>273</v>
       </c>
       <c r="X118" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="Y118" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="Y118" t="s" s="2">
-        <v>523</v>
-      </c>
       <c r="Z118" t="s" s="2">
         <v>79</v>
       </c>
@@ -16322,7 +16319,7 @@
         <v>79</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
@@ -16340,24 +16337,24 @@
         <v>79</v>
       </c>
       <c r="AK118" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AL118" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AL118" t="s" s="2">
+      <c r="AM118" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="AM118" t="s" s="2">
+      <c r="AN118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO118" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>527</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16383,16 +16380,16 @@
         <v>79</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="L119" t="s" s="2">
-        <v>673</v>
-      </c>
       <c r="M119" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N119" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>79</v>
@@ -16441,7 +16438,7 @@
         <v>79</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>77</v>
@@ -16462,10 +16459,10 @@
         <v>79</v>
       </c>
       <c r="AL119" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AM119" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>79</v>

--- a/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4468" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4468" uniqueCount="675">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -293,348 +293,352 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Observation.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Observation.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Observation.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+</t>
+  </si>
+  <si>
+    <t>Part of referenced event</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
+  </si>
+  <si>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>value:coding.code}
+value:coding.system}</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>VSCat</t>
+  </si>
+  <si>
+    <t>Observation.category.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Observation.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Observation.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Observation.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Observation.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Observation.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Observation.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Observation.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
-</t>
-  </si>
-  <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
-  </si>
-  <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>value:coding.code}
-value:coding.system}</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>VSCat</t>
-  </si>
-  <si>
-    <t>Observation.category.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2451,37 +2455,37 @@
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="15.80859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="148.1171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.08984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
@@ -4400,13 +4404,13 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4457,7 +4461,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4481,7 +4485,7 @@
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -4492,7 +4496,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4521,7 +4525,7 @@
         <v>136</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>138</v>
@@ -4562,10 +4566,10 @@
         <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>79</v>
@@ -4574,7 +4578,7 @@
         <v>194</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4598,7 +4602,7 @@
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4609,7 +4613,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4632,19 +4636,19 @@
         <v>90</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -4693,7 +4697,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4714,10 +4718,10 @@
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4728,7 +4732,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4751,13 +4755,13 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4808,7 +4812,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4832,7 +4836,7 @@
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4843,7 +4847,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4872,7 +4876,7 @@
         <v>136</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>138</v>
@@ -4913,10 +4917,10 @@
         <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>79</v>
@@ -4925,7 +4929,7 @@
         <v>194</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4949,7 +4953,7 @@
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4960,7 +4964,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4986,23 +4990,23 @@
         <v>103</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>79</v>
@@ -5044,7 +5048,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -5065,10 +5069,10 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -5079,7 +5083,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5102,16 +5106,16 @@
         <v>90</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -5161,7 +5165,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -5182,10 +5186,10 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -5196,7 +5200,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5222,21 +5226,21 @@
         <v>109</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>79</v>
@@ -5278,7 +5282,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5299,10 +5303,10 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -5313,7 +5317,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5336,17 +5340,17 @@
         <v>90</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -5395,7 +5399,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5416,10 +5420,10 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5430,7 +5434,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5453,19 +5457,19 @@
         <v>90</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5514,7 +5518,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5535,10 +5539,10 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -5549,7 +5553,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5572,19 +5576,19 @@
         <v>90</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5633,7 +5637,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5654,10 +5658,10 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5668,11 +5672,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5694,16 +5698,16 @@
         <v>186</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5728,13 +5732,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5752,7 +5756,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>89</v>
@@ -5767,27 +5771,27 @@
         <v>101</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5810,13 +5814,13 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5867,7 +5871,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5891,7 +5895,7 @@
         <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5902,7 +5906,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5931,7 +5935,7 @@
         <v>136</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>138</v>
@@ -5972,10 +5976,10 @@
         <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>79</v>
@@ -5984,7 +5988,7 @@
         <v>194</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -6008,7 +6012,7 @@
         <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -6019,7 +6023,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -6042,19 +6046,19 @@
         <v>90</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -6091,7 +6095,7 @@
         <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AB31" s="2"/>
       <c r="AC31" t="s" s="2">
@@ -6101,7 +6105,7 @@
         <v>194</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -6122,10 +6126,10 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -6136,10 +6140,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>79</v>
@@ -6161,19 +6165,19 @@
         <v>90</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -6222,7 +6226,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -6243,10 +6247,10 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6257,7 +6261,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6280,13 +6284,13 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -6337,7 +6341,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6361,7 +6365,7 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6372,7 +6376,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6401,7 +6405,7 @@
         <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>138</v>
@@ -6442,10 +6446,10 @@
         <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>79</v>
@@ -6454,7 +6458,7 @@
         <v>194</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6478,7 +6482,7 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6489,7 +6493,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6515,23 +6519,23 @@
         <v>103</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>79</v>
@@ -6573,7 +6577,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6594,10 +6598,10 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6608,7 +6612,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6631,16 +6635,16 @@
         <v>90</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6690,7 +6694,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6711,10 +6715,10 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6725,7 +6729,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6751,21 +6755,21 @@
         <v>109</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>79</v>
@@ -6807,7 +6811,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6828,10 +6832,10 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6842,7 +6846,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6865,17 +6869,17 @@
         <v>90</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6924,7 +6928,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6945,10 +6949,10 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6959,7 +6963,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6982,19 +6986,19 @@
         <v>90</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -7043,7 +7047,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -7064,10 +7068,10 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -7078,10 +7082,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>79</v>
@@ -7103,19 +7107,19 @@
         <v>90</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -7164,7 +7168,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -7185,10 +7189,10 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -7199,7 +7203,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7222,13 +7226,13 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -7279,7 +7283,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7303,7 +7307,7 @@
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7314,7 +7318,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7343,7 +7347,7 @@
         <v>136</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>138</v>
@@ -7384,10 +7388,10 @@
         <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>79</v>
@@ -7396,7 +7400,7 @@
         <v>194</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7420,7 +7424,7 @@
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7431,7 +7435,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7457,16 +7461,16 @@
         <v>103</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -7476,7 +7480,7 @@
         <v>79</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>79</v>
@@ -7515,7 +7519,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7536,10 +7540,10 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7550,7 +7554,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7573,16 +7577,16 @@
         <v>90</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7632,7 +7636,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7653,10 +7657,10 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7667,7 +7671,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7693,14 +7697,14 @@
         <v>109</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7710,7 +7714,7 @@
         <v>79</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>79</v>
@@ -7749,7 +7753,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7770,10 +7774,10 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7784,7 +7788,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7807,17 +7811,17 @@
         <v>90</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7866,7 +7870,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7887,10 +7891,10 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7901,7 +7905,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7924,19 +7928,19 @@
         <v>90</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7985,7 +7989,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -8006,10 +8010,10 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -8020,7 +8024,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8043,19 +8047,19 @@
         <v>90</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -8104,7 +8108,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -8125,10 +8129,10 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -8139,7 +8143,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8162,19 +8166,19 @@
         <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -8223,7 +8227,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -8238,19 +8242,19 @@
         <v>101</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
@@ -8258,7 +8262,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8281,13 +8285,13 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -8338,7 +8342,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8362,7 +8366,7 @@
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -8373,7 +8377,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8402,7 +8406,7 @@
         <v>136</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>138</v>
@@ -8443,10 +8447,10 @@
         <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>79</v>
@@ -8455,7 +8459,7 @@
         <v>194</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8479,7 +8483,7 @@
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -8490,7 +8494,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8513,16 +8517,16 @@
         <v>90</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8572,7 +8576,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8581,7 +8585,7 @@
         <v>89</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>101</v>
@@ -8607,7 +8611,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8633,13 +8637,13 @@
         <v>103</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8665,13 +8669,13 @@
         <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
@@ -8689,7 +8693,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8724,7 +8728,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8750,13 +8754,13 @@
         <v>147</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8806,7 +8810,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8830,7 +8834,7 @@
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8841,7 +8845,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8864,13 +8868,13 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8921,7 +8925,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8945,7 +8949,7 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8956,7 +8960,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8985,7 +8989,7 @@
         <v>136</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>138</v>
@@ -9026,10 +9030,10 @@
         <v>79</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>79</v>
@@ -9038,7 +9042,7 @@
         <v>194</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -9062,7 +9066,7 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -9073,7 +9077,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9099,16 +9103,16 @@
         <v>109</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -9136,10 +9140,10 @@
         <v>178</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -9157,7 +9161,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -9181,7 +9185,7 @@
         <v>132</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -9192,7 +9196,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9218,16 +9222,16 @@
         <v>186</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -9252,13 +9256,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -9276,7 +9280,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9297,10 +9301,10 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9311,7 +9315,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9337,16 +9341,16 @@
         <v>103</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9359,7 +9363,7 @@
         <v>79</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>79</v>
@@ -9375,7 +9379,7 @@
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9393,7 +9397,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9414,10 +9418,10 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9428,7 +9432,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9451,16 +9455,16 @@
         <v>90</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9474,7 +9478,7 @@
         <v>79</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>79</v>
@@ -9510,7 +9514,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9531,10 +9535,10 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9545,7 +9549,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9568,13 +9572,13 @@
         <v>90</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9625,7 +9629,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9646,10 +9650,10 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9660,7 +9664,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9683,16 +9687,16 @@
         <v>90</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9742,7 +9746,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9763,10 +9767,10 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9777,7 +9781,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9800,16 +9804,16 @@
         <v>90</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9859,7 +9863,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9894,7 +9898,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9917,16 +9921,16 @@
         <v>90</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9976,7 +9980,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9997,13 +10001,13 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>79</v>
@@ -10011,11 +10015,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -10034,19 +10038,19 @@
         <v>90</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -10095,7 +10099,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -10110,19 +10114,19 @@
         <v>101</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>79</v>
@@ -10130,11 +10134,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -10153,19 +10157,19 @@
         <v>90</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -10214,7 +10218,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -10223,25 +10227,25 @@
         <v>89</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>79</v>
@@ -10249,7 +10253,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10272,16 +10276,16 @@
         <v>90</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -10331,7 +10335,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10352,13 +10356,13 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>79</v>
@@ -10366,7 +10370,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10389,17 +10393,17 @@
         <v>90</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10448,7 +10452,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10463,19 +10467,19 @@
         <v>101</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>79</v>
@@ -10483,7 +10487,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10506,13 +10510,13 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10563,7 +10567,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10587,7 +10591,7 @@
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10598,7 +10602,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10627,7 +10631,7 @@
         <v>136</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>138</v>
@@ -10668,10 +10672,10 @@
         <v>79</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>79</v>
@@ -10680,7 +10684,7 @@
         <v>194</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10704,7 +10708,7 @@
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10715,7 +10719,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10738,16 +10742,16 @@
         <v>90</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10797,7 +10801,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10806,7 +10810,7 @@
         <v>89</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>101</v>
@@ -10832,7 +10836,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10858,13 +10862,13 @@
         <v>103</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10890,13 +10894,13 @@
         <v>79</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>79</v>
@@ -10914,7 +10918,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10949,7 +10953,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10975,13 +10979,13 @@
         <v>147</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -11031,7 +11035,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -11055,7 +11059,7 @@
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -11066,7 +11070,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11089,13 +11093,13 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -11146,7 +11150,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -11170,7 +11174,7 @@
         <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -11181,7 +11185,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11210,7 +11214,7 @@
         <v>136</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>138</v>
@@ -11251,10 +11255,10 @@
         <v>79</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>79</v>
@@ -11263,7 +11267,7 @@
         <v>194</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11287,7 +11291,7 @@
         <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -11298,7 +11302,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11324,16 +11328,16 @@
         <v>109</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -11361,10 +11365,10 @@
         <v>178</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -11382,7 +11386,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11406,7 +11410,7 @@
         <v>132</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11417,7 +11421,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11443,16 +11447,16 @@
         <v>186</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11477,13 +11481,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11501,7 +11505,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11522,10 +11526,10 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11536,7 +11540,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11562,16 +11566,16 @@
         <v>103</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11584,7 +11588,7 @@
         <v>79</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>79</v>
@@ -11600,7 +11604,7 @@
       </c>
       <c r="X78" s="2"/>
       <c r="Y78" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11618,7 +11622,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11639,10 +11643,10 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11653,7 +11657,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11676,16 +11680,16 @@
         <v>90</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11699,7 +11703,7 @@
         <v>79</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>79</v>
@@ -11735,7 +11739,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11756,10 +11760,10 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11770,7 +11774,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11793,13 +11797,13 @@
         <v>90</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11850,7 +11854,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11871,10 +11875,10 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11885,7 +11889,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11908,16 +11912,16 @@
         <v>90</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11967,7 +11971,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11988,10 +11992,10 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -12002,7 +12006,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12025,16 +12029,16 @@
         <v>90</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -12084,7 +12088,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -12119,7 +12123,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12142,19 +12146,19 @@
         <v>90</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -12191,17 +12195,17 @@
         <v>79</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AB83" s="2"/>
       <c r="AC83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -12210,7 +12214,7 @@
         <v>89</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>101</v>
@@ -12219,27 +12223,27 @@
         <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>79</v>
@@ -12261,19 +12265,19 @@
         <v>90</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -12322,7 +12326,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12331,7 +12335,7 @@
         <v>89</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>101</v>
@@ -12340,24 +12344,24 @@
         <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12380,13 +12384,13 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12437,7 +12441,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12461,7 +12465,7 @@
         <v>79</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12472,7 +12476,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12501,7 +12505,7 @@
         <v>136</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>138</v>
@@ -12542,10 +12546,10 @@
         <v>79</v>
       </c>
       <c r="AA86" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AC86" t="s" s="2">
         <v>79</v>
@@ -12554,7 +12558,7 @@
         <v>194</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12578,7 +12582,7 @@
         <v>79</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12589,7 +12593,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12612,19 +12616,19 @@
         <v>90</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12673,7 +12677,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12694,10 +12698,10 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12708,7 +12712,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12734,20 +12738,20 @@
         <v>109</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P88" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q88" t="s" s="2">
         <v>79</v>
@@ -12771,10 +12775,10 @@
         <v>178</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>79</v>
@@ -12792,7 +12796,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12813,10 +12817,10 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12827,7 +12831,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12850,17 +12854,17 @@
         <v>90</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12909,7 +12913,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12930,10 +12934,10 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12944,7 +12948,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12970,21 +12974,21 @@
         <v>103</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="R90" t="s" s="2">
         <v>79</v>
@@ -13026,7 +13030,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -13035,7 +13039,7 @@
         <v>89</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>101</v>
@@ -13047,10 +13051,10 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -13061,7 +13065,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13087,23 +13091,23 @@
         <v>109</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>79</v>
@@ -13145,7 +13149,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -13166,10 +13170,10 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -13180,7 +13184,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13206,16 +13210,16 @@
         <v>186</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -13240,13 +13244,13 @@
         <v>79</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>79</v>
@@ -13264,7 +13268,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -13273,7 +13277,7 @@
         <v>89</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>101</v>
@@ -13288,7 +13292,7 @@
         <v>132</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -13299,11 +13303,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -13325,16 +13329,16 @@
         <v>186</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -13359,13 +13363,13 @@
         <v>79</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>79</v>
@@ -13383,7 +13387,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -13401,24 +13405,24 @@
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13441,19 +13445,19 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -13502,7 +13506,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13523,10 +13527,10 @@
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13537,7 +13541,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13563,13 +13567,13 @@
         <v>186</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13595,13 +13599,13 @@
         <v>79</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>79</v>
@@ -13619,7 +13623,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13637,24 +13641,24 @@
         <v>79</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13680,16 +13684,16 @@
         <v>186</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13714,13 +13718,13 @@
         <v>79</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>79</v>
@@ -13738,7 +13742,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13759,10 +13763,10 @@
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
@@ -13773,7 +13777,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13796,16 +13800,16 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13855,7 +13859,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13873,24 +13877,24 @@
         <v>79</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13913,16 +13917,16 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13972,7 +13976,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13990,24 +13994,24 @@
         <v>79</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14030,19 +14034,19 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>79</v>
@@ -14091,7 +14095,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -14103,7 +14107,7 @@
         <v>79</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>79</v>
@@ -14112,10 +14116,10 @@
         <v>79</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>79</v>
@@ -14126,7 +14130,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14149,13 +14153,13 @@
         <v>79</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -14206,7 +14210,7 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
@@ -14230,7 +14234,7 @@
         <v>79</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>79</v>
@@ -14241,7 +14245,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14270,7 +14274,7 @@
         <v>136</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>138</v>
@@ -14323,7 +14327,7 @@
         <v>79</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
@@ -14347,7 +14351,7 @@
         <v>79</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>79</v>
@@ -14358,11 +14362,11 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -14384,10 +14388,10 @@
         <v>135</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>138</v>
@@ -14442,7 +14446,7 @@
         <v>79</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
@@ -14477,7 +14481,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14500,13 +14504,13 @@
         <v>79</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -14557,7 +14561,7 @@
         <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
@@ -14566,7 +14570,7 @@
         <v>89</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>101</v>
@@ -14578,10 +14582,10 @@
         <v>79</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>79</v>
@@ -14592,7 +14596,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14615,13 +14619,13 @@
         <v>79</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -14672,7 +14676,7 @@
         <v>79</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>77</v>
@@ -14681,7 +14685,7 @@
         <v>89</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>101</v>
@@ -14693,10 +14697,10 @@
         <v>79</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>79</v>
@@ -14707,7 +14711,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14733,16 +14737,16 @@
         <v>186</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>79</v>
@@ -14770,10 +14774,10 @@
         <v>113</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>79</v>
@@ -14791,7 +14795,7 @@
         <v>79</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
@@ -14809,13 +14813,13 @@
         <v>79</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>79</v>
@@ -14826,7 +14830,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14852,16 +14856,16 @@
         <v>186</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>79</v>
@@ -14886,13 +14890,13 @@
         <v>79</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>79</v>
@@ -14910,7 +14914,7 @@
         <v>79</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
@@ -14928,13 +14932,13 @@
         <v>79</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>79</v>
@@ -14945,7 +14949,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14968,17 +14972,17 @@
         <v>79</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>79</v>
@@ -15027,7 +15031,7 @@
         <v>79</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
@@ -15051,7 +15055,7 @@
         <v>79</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>79</v>
@@ -15062,7 +15066,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15085,13 +15089,13 @@
         <v>79</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -15142,7 +15146,7 @@
         <v>79</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
@@ -15163,10 +15167,10 @@
         <v>79</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>79</v>
@@ -15177,7 +15181,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15200,16 +15204,16 @@
         <v>90</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -15259,7 +15263,7 @@
         <v>79</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
@@ -15280,10 +15284,10 @@
         <v>79</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>79</v>
@@ -15294,7 +15298,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15317,16 +15321,16 @@
         <v>90</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -15376,7 +15380,7 @@
         <v>79</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
@@ -15397,10 +15401,10 @@
         <v>79</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>79</v>
@@ -15411,7 +15415,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15434,19 +15438,19 @@
         <v>90</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>79</v>
@@ -15495,7 +15499,7 @@
         <v>79</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>77</v>
@@ -15507,7 +15511,7 @@
         <v>79</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>79</v>
@@ -15516,10 +15520,10 @@
         <v>79</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>79</v>
@@ -15530,7 +15534,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15553,13 +15557,13 @@
         <v>79</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -15610,7 +15614,7 @@
         <v>79</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>77</v>
@@ -15634,7 +15638,7 @@
         <v>79</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>79</v>
@@ -15645,7 +15649,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15674,7 +15678,7 @@
         <v>136</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>138</v>
@@ -15727,7 +15731,7 @@
         <v>79</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
@@ -15751,7 +15755,7 @@
         <v>79</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>79</v>
@@ -15762,11 +15766,11 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -15788,10 +15792,10 @@
         <v>135</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M114" t="s" s="2">
         <v>138</v>
@@ -15846,7 +15850,7 @@
         <v>79</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
@@ -15881,7 +15885,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15907,16 +15911,16 @@
         <v>186</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>79</v>
@@ -15941,13 +15945,13 @@
         <v>79</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>79</v>
@@ -15965,7 +15969,7 @@
         <v>79</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>89</v>
@@ -15983,16 +15987,16 @@
         <v>79</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>79</v>
@@ -16000,7 +16004,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -16023,19 +16027,19 @@
         <v>90</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>79</v>
@@ -16063,10 +16067,10 @@
         <v>178</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>79</v>
@@ -16084,7 +16088,7 @@
         <v>79</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>77</v>
@@ -16093,7 +16097,7 @@
         <v>89</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>101</v>
@@ -16102,24 +16106,24 @@
         <v>79</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16145,16 +16149,16 @@
         <v>186</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>79</v>
@@ -16179,13 +16183,13 @@
         <v>79</v>
       </c>
       <c r="W117" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>79</v>
@@ -16203,7 +16207,7 @@
         <v>79</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
@@ -16212,7 +16216,7 @@
         <v>89</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>101</v>
@@ -16227,7 +16231,7 @@
         <v>132</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>79</v>
@@ -16238,11 +16242,11 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -16264,16 +16268,16 @@
         <v>186</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>79</v>
@@ -16298,13 +16302,13 @@
         <v>79</v>
       </c>
       <c r="W118" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>79</v>
@@ -16322,7 +16326,7 @@
         <v>79</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
@@ -16340,24 +16344,24 @@
         <v>79</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16383,16 +16387,16 @@
         <v>79</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>79</v>
@@ -16441,7 +16445,7 @@
         <v>79</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>77</v>
@@ -16462,10 +16466,10 @@
         <v>79</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>79</v>

--- a/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4468" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4468" uniqueCount="673">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -1411,9 +1411,6 @@
   </si>
   <si>
     <t>Observation.performer.identifier.system</t>
-  </si>
-  <si>
-    <t>http://ehelse.no/fhir/ValueSet/vkp-performer-identifiers.valueset</t>
   </si>
   <si>
     <t>Observation.performer.identifier.value</t>
@@ -2472,7 +2469,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.08984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.5" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -11600,7 +11597,7 @@
       </c>
       <c r="X78" s="2"/>
       <c r="Y78" t="s" s="2">
-        <v>446</v>
+        <v>357</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11653,7 +11650,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11770,7 +11767,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11885,7 +11882,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -12002,7 +11999,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12119,7 +12116,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12142,19 +12139,19 @@
         <v>89</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L83" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -12191,26 +12188,26 @@
         <v>79</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AB83" s="2"/>
       <c r="AC83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD83" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH83" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>100</v>
@@ -12219,27 +12216,27 @@
         <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AL83" t="s" s="2">
+      <c r="AM83" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO83" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>79</v>
@@ -12261,19 +12258,19 @@
         <v>89</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="K84" t="s" s="2">
+      <c r="L84" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L84" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -12322,7 +12319,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12331,7 +12328,7 @@
         <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>100</v>
@@ -12340,24 +12337,24 @@
         <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AL84" t="s" s="2">
+      <c r="AM84" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AM84" t="s" s="2">
+      <c r="AN84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO84" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12472,7 +12469,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12589,7 +12586,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12612,19 +12609,19 @@
         <v>89</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="K87" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="K87" t="s" s="2">
+      <c r="L87" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12673,7 +12670,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12694,10 +12691,10 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AM87" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12708,7 +12705,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12734,20 +12731,20 @@
         <v>108</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P88" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P88" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="Q88" t="s" s="2">
         <v>79</v>
@@ -12771,28 +12768,28 @@
         <v>177</v>
       </c>
       <c r="X88" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="Y88" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="Y88" t="s" s="2">
+      <c r="Z88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE88" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12813,10 +12810,10 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12827,7 +12824,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12853,14 +12850,14 @@
         <v>198</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12909,7 +12906,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12930,10 +12927,10 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AM89" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12944,7 +12941,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12970,72 +12967,72 @@
         <v>102</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE90" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="R90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE90" t="s" s="2">
+      <c r="AF90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH90" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>100</v>
@@ -13047,10 +13044,10 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -13061,7 +13058,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13087,65 +13084,65 @@
         <v>108</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="L91" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE91" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -13166,10 +13163,10 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -13180,7 +13177,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13206,16 +13203,16 @@
         <v>185</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -13243,37 +13240,37 @@
         <v>273</v>
       </c>
       <c r="X92" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="Y92" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="Y92" t="s" s="2">
+      <c r="Z92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH92" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>100</v>
@@ -13288,7 +13285,7 @@
         <v>131</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -13299,11 +13296,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -13325,16 +13322,16 @@
         <v>185</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -13362,11 +13359,11 @@
         <v>273</v>
       </c>
       <c r="X93" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="Y93" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="Y93" t="s" s="2">
-        <v>523</v>
-      </c>
       <c r="Z93" t="s" s="2">
         <v>79</v>
       </c>
@@ -13383,7 +13380,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -13401,24 +13398,24 @@
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AL93" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AL93" t="s" s="2">
+      <c r="AM93" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="AM93" t="s" s="2">
+      <c r="AN93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO93" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>527</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13441,19 +13438,19 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="K94" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="K94" t="s" s="2">
+      <c r="L94" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -13502,7 +13499,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13523,10 +13520,10 @@
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13537,7 +13534,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13563,13 +13560,13 @@
         <v>185</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13595,14 +13592,14 @@
         <v>79</v>
       </c>
       <c r="W95" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="X95" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="X95" t="s" s="2">
+      <c r="Y95" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="Y95" t="s" s="2">
-        <v>542</v>
-      </c>
       <c r="Z95" t="s" s="2">
         <v>79</v>
       </c>
@@ -13619,7 +13616,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13637,24 +13634,24 @@
         <v>79</v>
       </c>
       <c r="AK95" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AL95" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="AL95" t="s" s="2">
+      <c r="AM95" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="AM95" t="s" s="2">
+      <c r="AN95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO95" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>546</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13680,16 +13677,16 @@
         <v>185</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13714,14 +13711,14 @@
         <v>79</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="X96" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="Y96" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="Y96" t="s" s="2">
-        <v>553</v>
-      </c>
       <c r="Z96" t="s" s="2">
         <v>79</v>
       </c>
@@ -13738,7 +13735,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13759,10 +13756,10 @@
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AM96" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
@@ -13773,7 +13770,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13796,16 +13793,16 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="K97" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="K97" t="s" s="2">
+      <c r="L97" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13855,7 +13852,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13873,24 +13870,24 @@
         <v>79</v>
       </c>
       <c r="AK97" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AL97" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="AL97" t="s" s="2">
+      <c r="AM97" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="AM97" t="s" s="2">
+      <c r="AN97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO97" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>564</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13913,16 +13910,16 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="K98" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="K98" t="s" s="2">
+      <c r="L98" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13972,7 +13969,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13990,24 +13987,24 @@
         <v>79</v>
       </c>
       <c r="AK98" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AL98" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="AL98" t="s" s="2">
+      <c r="AM98" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="AM98" t="s" s="2">
+      <c r="AN98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO98" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>573</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14030,19 +14027,19 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="K99" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="K99" t="s" s="2">
+      <c r="L99" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="M99" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>79</v>
@@ -14091,7 +14088,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -14103,19 +14100,19 @@
         <v>79</v>
       </c>
       <c r="AI99" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL99" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="AJ99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL99" t="s" s="2">
+      <c r="AM99" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>79</v>
@@ -14126,7 +14123,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14241,7 +14238,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14358,11 +14355,11 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -14384,10 +14381,10 @@
         <v>134</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>137</v>
@@ -14442,7 +14439,7 @@
         <v>79</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
@@ -14477,7 +14474,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14500,13 +14497,13 @@
         <v>79</v>
       </c>
       <c r="J103" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="K103" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="K103" t="s" s="2">
+      <c r="L103" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -14557,7 +14554,7 @@
         <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
@@ -14566,7 +14563,7 @@
         <v>88</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>100</v>
@@ -14578,10 +14575,10 @@
         <v>79</v>
       </c>
       <c r="AL103" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AM103" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>79</v>
@@ -14592,7 +14589,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14615,13 +14612,13 @@
         <v>79</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -14672,7 +14669,7 @@
         <v>79</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>77</v>
@@ -14681,7 +14678,7 @@
         <v>88</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>100</v>
@@ -14693,10 +14690,10 @@
         <v>79</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>79</v>
@@ -14707,7 +14704,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14733,16 +14730,16 @@
         <v>185</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>79</v>
@@ -14770,11 +14767,11 @@
         <v>112</v>
       </c>
       <c r="X105" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="Y105" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="Y105" t="s" s="2">
-        <v>607</v>
-      </c>
       <c r="Z105" t="s" s="2">
         <v>79</v>
       </c>
@@ -14791,7 +14788,7 @@
         <v>79</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
@@ -14809,13 +14806,13 @@
         <v>79</v>
       </c>
       <c r="AK105" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AL105" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="AL105" t="s" s="2">
-        <v>609</v>
-      </c>
       <c r="AM105" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>79</v>
@@ -14826,7 +14823,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14852,16 +14849,16 @@
         <v>185</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>79</v>
@@ -14886,14 +14883,14 @@
         <v>79</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="X106" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="Y106" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="Y106" t="s" s="2">
-        <v>616</v>
-      </c>
       <c r="Z106" t="s" s="2">
         <v>79</v>
       </c>
@@ -14910,7 +14907,7 @@
         <v>79</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
@@ -14928,13 +14925,13 @@
         <v>79</v>
       </c>
       <c r="AK106" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AL106" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="AL106" t="s" s="2">
-        <v>609</v>
-      </c>
       <c r="AM106" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>79</v>
@@ -14945,7 +14942,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14968,17 +14965,17 @@
         <v>79</v>
       </c>
       <c r="J107" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="K107" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="K107" t="s" s="2">
+      <c r="L107" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>79</v>
@@ -15027,7 +15024,7 @@
         <v>79</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
@@ -15051,7 +15048,7 @@
         <v>79</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>79</v>
@@ -15062,7 +15059,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15088,10 +15085,10 @@
         <v>198</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -15142,7 +15139,7 @@
         <v>79</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
@@ -15163,10 +15160,10 @@
         <v>79</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>79</v>
@@ -15177,7 +15174,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15200,16 +15197,16 @@
         <v>89</v>
       </c>
       <c r="J109" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="K109" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="K109" t="s" s="2">
+      <c r="L109" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="M109" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -15259,7 +15256,7 @@
         <v>79</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
@@ -15280,10 +15277,10 @@
         <v>79</v>
       </c>
       <c r="AL109" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AM109" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>79</v>
@@ -15294,7 +15291,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15317,16 +15314,16 @@
         <v>89</v>
       </c>
       <c r="J110" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="K110" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="K110" t="s" s="2">
+      <c r="L110" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="M110" t="s" s="2">
         <v>637</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>638</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -15376,7 +15373,7 @@
         <v>79</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
@@ -15397,10 +15394,10 @@
         <v>79</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>79</v>
@@ -15411,7 +15408,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15434,19 +15431,19 @@
         <v>89</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="L111" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>79</v>
@@ -15495,7 +15492,7 @@
         <v>79</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>77</v>
@@ -15507,19 +15504,19 @@
         <v>79</v>
       </c>
       <c r="AI111" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL111" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="AJ111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL111" t="s" s="2">
+      <c r="AM111" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>79</v>
@@ -15530,7 +15527,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15645,7 +15642,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15762,11 +15759,11 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -15788,10 +15785,10 @@
         <v>134</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="M114" t="s" s="2">
         <v>137</v>
@@ -15846,7 +15843,7 @@
         <v>79</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
@@ -15881,7 +15878,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15907,16 +15904,16 @@
         <v>185</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="L115" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="L115" t="s" s="2">
+      <c r="M115" t="s" s="2">
         <v>652</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>653</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>654</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>79</v>
@@ -15965,7 +15962,7 @@
         <v>79</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>88</v>
@@ -15983,7 +15980,7 @@
         <v>79</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>278</v>
@@ -16000,7 +15997,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -16023,19 +16020,19 @@
         <v>89</v>
       </c>
       <c r="J116" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="K116" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="K116" t="s" s="2">
+      <c r="L116" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="L116" t="s" s="2">
+      <c r="M116" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="M116" t="s" s="2">
-        <v>660</v>
-      </c>
       <c r="N116" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>79</v>
@@ -16063,37 +16060,37 @@
         <v>177</v>
       </c>
       <c r="X116" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="Y116" t="s" s="2">
         <v>661</v>
       </c>
-      <c r="Y116" t="s" s="2">
+      <c r="Z116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH116" t="s" s="2">
         <v>662</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>663</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>100</v>
@@ -16102,24 +16099,24 @@
         <v>79</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AL116" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AM116" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AM116" t="s" s="2">
+      <c r="AN116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO116" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO116" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16145,16 +16142,16 @@
         <v>185</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="L117" t="s" s="2">
+      <c r="M117" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="M117" t="s" s="2">
-        <v>668</v>
-      </c>
       <c r="N117" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>79</v>
@@ -16182,11 +16179,11 @@
         <v>273</v>
       </c>
       <c r="X117" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="Y117" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="Y117" t="s" s="2">
-        <v>513</v>
-      </c>
       <c r="Z117" t="s" s="2">
         <v>79</v>
       </c>
@@ -16203,7 +16200,7 @@
         <v>79</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
@@ -16212,7 +16209,7 @@
         <v>88</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>100</v>
@@ -16227,7 +16224,7 @@
         <v>131</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>79</v>
@@ -16238,11 +16235,11 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -16264,16 +16261,16 @@
         <v>185</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="L118" t="s" s="2">
+      <c r="M118" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="M118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>79</v>
@@ -16301,11 +16298,11 @@
         <v>273</v>
       </c>
       <c r="X118" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="Y118" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="Y118" t="s" s="2">
-        <v>523</v>
-      </c>
       <c r="Z118" t="s" s="2">
         <v>79</v>
       </c>
@@ -16322,7 +16319,7 @@
         <v>79</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
@@ -16340,24 +16337,24 @@
         <v>79</v>
       </c>
       <c r="AK118" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AL118" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AL118" t="s" s="2">
+      <c r="AM118" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="AM118" t="s" s="2">
+      <c r="AN118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO118" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>527</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16383,16 +16380,16 @@
         <v>79</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="L119" t="s" s="2">
-        <v>673</v>
-      </c>
       <c r="M119" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N119" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>79</v>
@@ -16441,7 +16438,7 @@
         <v>79</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>77</v>
@@ -16462,10 +16459,10 @@
         <v>79</v>
       </c>
       <c r="AL119" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AM119" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>79</v>

--- a/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4468" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4468" uniqueCount="674">
   <si>
     <t>Property</t>
   </si>
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/vkp-Observation-Oxygensat</t>
+    <t>http://ehelse.no/fhir/StructureDefinition/vkp-Observation-Oxygensat</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -1411,6 +1411,9 @@
   </si>
   <si>
     <t>Observation.performer.identifier.system</t>
+  </si>
+  <si>
+    <t>http://ehelse.no/fhir/ValueSet/vkp-performer-identifiers.valueset</t>
   </si>
   <si>
     <t>Observation.performer.identifier.value</t>
@@ -2469,7 +2472,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.5" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.08984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -11597,7 +11600,7 @@
       </c>
       <c r="X78" s="2"/>
       <c r="Y78" t="s" s="2">
-        <v>357</v>
+        <v>446</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11650,7 +11653,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11767,7 +11770,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11882,7 +11885,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11999,7 +12002,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12116,7 +12119,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12139,19 +12142,19 @@
         <v>89</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -12188,17 +12191,17 @@
         <v>79</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AB83" s="2"/>
       <c r="AC83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -12207,7 +12210,7 @@
         <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>100</v>
@@ -12216,27 +12219,27 @@
         <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>79</v>
@@ -12258,19 +12261,19 @@
         <v>89</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -12319,7 +12322,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12328,7 +12331,7 @@
         <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>100</v>
@@ -12337,24 +12340,24 @@
         <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12469,7 +12472,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12586,7 +12589,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12609,19 +12612,19 @@
         <v>89</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12670,7 +12673,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12691,10 +12694,10 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12705,7 +12708,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12731,20 +12734,20 @@
         <v>108</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P88" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q88" t="s" s="2">
         <v>79</v>
@@ -12768,10 +12771,10 @@
         <v>177</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>79</v>
@@ -12789,7 +12792,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12810,10 +12813,10 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12824,7 +12827,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12850,14 +12853,14 @@
         <v>198</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12906,7 +12909,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12927,10 +12930,10 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12941,7 +12944,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12967,21 +12970,21 @@
         <v>102</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="R90" t="s" s="2">
         <v>79</v>
@@ -13023,7 +13026,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -13032,7 +13035,7 @@
         <v>88</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>100</v>
@@ -13044,10 +13047,10 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -13058,7 +13061,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13084,23 +13087,23 @@
         <v>108</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>79</v>
@@ -13142,7 +13145,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -13163,10 +13166,10 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -13177,7 +13180,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13203,16 +13206,16 @@
         <v>185</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -13240,10 +13243,10 @@
         <v>273</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>79</v>
@@ -13261,7 +13264,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -13270,7 +13273,7 @@
         <v>88</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>100</v>
@@ -13285,7 +13288,7 @@
         <v>131</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -13296,11 +13299,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -13322,16 +13325,16 @@
         <v>185</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -13359,10 +13362,10 @@
         <v>273</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>79</v>
@@ -13380,7 +13383,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -13398,24 +13401,24 @@
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13438,19 +13441,19 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -13499,7 +13502,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13520,10 +13523,10 @@
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13534,7 +13537,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13560,13 +13563,13 @@
         <v>185</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13592,13 +13595,13 @@
         <v>79</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>79</v>
@@ -13616,7 +13619,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13634,24 +13637,24 @@
         <v>79</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13677,16 +13680,16 @@
         <v>185</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13711,13 +13714,13 @@
         <v>79</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>79</v>
@@ -13735,7 +13738,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13756,10 +13759,10 @@
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
@@ -13770,7 +13773,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13793,16 +13796,16 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13852,7 +13855,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13870,24 +13873,24 @@
         <v>79</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13910,16 +13913,16 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13969,7 +13972,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13987,24 +13990,24 @@
         <v>79</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14027,19 +14030,19 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>79</v>
@@ -14088,7 +14091,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -14100,7 +14103,7 @@
         <v>79</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>79</v>
@@ -14109,10 +14112,10 @@
         <v>79</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>79</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14238,7 +14241,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14355,11 +14358,11 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -14381,10 +14384,10 @@
         <v>134</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>137</v>
@@ -14439,7 +14442,7 @@
         <v>79</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
@@ -14474,7 +14477,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14497,13 +14500,13 @@
         <v>79</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -14554,7 +14557,7 @@
         <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
@@ -14563,7 +14566,7 @@
         <v>88</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>100</v>
@@ -14575,10 +14578,10 @@
         <v>79</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>79</v>
@@ -14589,7 +14592,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14612,13 +14615,13 @@
         <v>79</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -14669,7 +14672,7 @@
         <v>79</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>77</v>
@@ -14678,7 +14681,7 @@
         <v>88</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>100</v>
@@ -14690,10 +14693,10 @@
         <v>79</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>79</v>
@@ -14704,7 +14707,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14730,16 +14733,16 @@
         <v>185</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>79</v>
@@ -14767,10 +14770,10 @@
         <v>112</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>79</v>
@@ -14788,7 +14791,7 @@
         <v>79</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
@@ -14806,13 +14809,13 @@
         <v>79</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>79</v>
@@ -14823,7 +14826,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14849,16 +14852,16 @@
         <v>185</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>79</v>
@@ -14883,13 +14886,13 @@
         <v>79</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>79</v>
@@ -14907,7 +14910,7 @@
         <v>79</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
@@ -14925,13 +14928,13 @@
         <v>79</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>79</v>
@@ -14942,7 +14945,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14965,17 +14968,17 @@
         <v>79</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>79</v>
@@ -15024,7 +15027,7 @@
         <v>79</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
@@ -15048,7 +15051,7 @@
         <v>79</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>79</v>
@@ -15059,7 +15062,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15085,10 +15088,10 @@
         <v>198</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -15139,7 +15142,7 @@
         <v>79</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
@@ -15160,10 +15163,10 @@
         <v>79</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>79</v>
@@ -15174,7 +15177,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15197,16 +15200,16 @@
         <v>89</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -15256,7 +15259,7 @@
         <v>79</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
@@ -15277,10 +15280,10 @@
         <v>79</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>79</v>
@@ -15291,7 +15294,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15314,16 +15317,16 @@
         <v>89</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -15373,7 +15376,7 @@
         <v>79</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
@@ -15394,10 +15397,10 @@
         <v>79</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>79</v>
@@ -15408,7 +15411,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15431,19 +15434,19 @@
         <v>89</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>79</v>
@@ -15492,7 +15495,7 @@
         <v>79</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>77</v>
@@ -15504,7 +15507,7 @@
         <v>79</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>79</v>
@@ -15513,10 +15516,10 @@
         <v>79</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>79</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15642,7 +15645,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15759,11 +15762,11 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -15785,10 +15788,10 @@
         <v>134</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M114" t="s" s="2">
         <v>137</v>
@@ -15843,7 +15846,7 @@
         <v>79</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
@@ -15878,7 +15881,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15904,16 +15907,16 @@
         <v>185</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>79</v>
@@ -15962,7 +15965,7 @@
         <v>79</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>88</v>
@@ -15980,7 +15983,7 @@
         <v>79</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>278</v>
@@ -15997,7 +16000,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -16020,19 +16023,19 @@
         <v>89</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>79</v>
@@ -16060,10 +16063,10 @@
         <v>177</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>79</v>
@@ -16081,7 +16084,7 @@
         <v>79</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>77</v>
@@ -16090,7 +16093,7 @@
         <v>88</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>100</v>
@@ -16099,24 +16102,24 @@
         <v>79</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16142,16 +16145,16 @@
         <v>185</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>79</v>
@@ -16179,10 +16182,10 @@
         <v>273</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>79</v>
@@ -16200,7 +16203,7 @@
         <v>79</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
@@ -16209,7 +16212,7 @@
         <v>88</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>100</v>
@@ -16224,7 +16227,7 @@
         <v>131</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>79</v>
@@ -16235,11 +16238,11 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -16261,16 +16264,16 @@
         <v>185</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>79</v>
@@ -16298,10 +16301,10 @@
         <v>273</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>79</v>
@@ -16319,7 +16322,7 @@
         <v>79</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
@@ -16337,24 +16340,24 @@
         <v>79</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16380,16 +16383,16 @@
         <v>79</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>79</v>
@@ -16438,7 +16441,7 @@
         <v>79</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>77</v>
@@ -16459,10 +16462,10 @@
         <v>79</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>79</v>

--- a/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -386,7 +386,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -522,7 +522,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -551,7 +551,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -631,7 +631,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>value:coding.code}
@@ -925,7 +925,7 @@
     <t>This identifies the vital sign result type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1134,7 +1134,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1212,7 +1212,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1300,7 +1300,7 @@
     <t>Observation.subject.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1340,7 +1340,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1363,7 +1363,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1748,7 +1748,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t>obs-6
@@ -1780,7 +1780,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1839,7 +1839,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1872,7 +1872,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1884,7 +1884,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1912,7 +1912,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1992,7 +1992,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -2042,7 +2042,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -2075,7 +2075,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -2112,7 +2112,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -2134,7 +2134,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -2596,7 +2596,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="122.43359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4197,7 +4197,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>178</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>202</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>217</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>231</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>249</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>285</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>322</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>334</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>359</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>385</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>395</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>418</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>440</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>461</v>
       </c>
@@ -11301,7 +11301,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>474</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
         <v>479</v>
       </c>
@@ -12023,7 +12023,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>481</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
         <v>484</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
         <v>497</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
         <v>503</v>
       </c>
@@ -13227,7 +13227,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>524</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
         <v>532</v>
       </c>
@@ -13467,7 +13467,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
         <v>541</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
         <v>549</v>
       </c>
@@ -15877,7 +15877,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="111" hidden="true">
+    <row r="111">
       <c r="A111" t="s" s="2">
         <v>682</v>
       </c>
@@ -16359,7 +16359,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
         <v>692</v>
       </c>
@@ -16481,7 +16481,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="116" hidden="true">
+    <row r="116">
       <c r="A116" t="s" s="2">
         <v>698</v>
       </c>
@@ -16603,7 +16603,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="117" hidden="true">
+    <row r="117">
       <c r="A117" t="s" s="2">
         <v>707</v>
       </c>
@@ -16971,12 +16971,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP119">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Oxygensat.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.8</t>
+    <t>0.3.9</t>
   </si>
   <si>
     <t>Name</t>
